--- a/修論/本文0117/figure/fig_3_1_3QW_broadcontact_Jth.xlsx
+++ b/修論/本文0117/figure/fig_3_1_3QW_broadcontact_Jth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文\figure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文0117\figure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B9A7E9-A6B6-43A6-AC6D-B03F5EA105F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AE74C0-1B1E-45D7-8195-04BAA8F4C0F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="0" windowWidth="18270" windowHeight="7980" activeTab="1" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
+    <workbookView xWindow="3510" yWindow="0" windowWidth="18270" windowHeight="7980" activeTab="1" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
   <si>
     <t>L500_id</t>
     <phoneticPr fontId="1"/>
@@ -95,6 +95,74 @@
   </si>
   <si>
     <t>alpha_int/cm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w=100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w=3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w=5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w=10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w=30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w=50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w=300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  係数値 ±標準偏差</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>ｱ</t>
+  </si>
+  <si>
+    <t>係数値</t>
+  </si>
+  <si>
+    <t>±標準偏差</t>
+  </si>
+  <si>
+    <t>-1.#J</t>
+  </si>
+  <si>
+    <t>a+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/a-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/a+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -711,10 +779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94E7890-6CD0-48BF-9442-0F734CED5114}">
-  <dimension ref="B1:E4"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -722,23 +790,47 @@
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B2">
-        <v>10.8</v>
+        <f>0.0013708</f>
+        <v>1.3707999999999999E-3</v>
       </c>
       <c r="C2">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+        <f>0.57049</f>
+        <v>0.57049000000000005</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2">
+        <f>0.57049</f>
+        <v>0.57049000000000005</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>13</v>
       </c>
@@ -748,22 +840,537 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3">
+        <f>0.0013708</f>
+        <v>1.3707999999999999E-3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>1.7899999999999999E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C4">
         <f>1/C2</f>
-        <v>0.96153846153846145</v>
+        <v>1.7528791039282019</v>
       </c>
       <c r="D4">
         <v>0.32</v>
       </c>
       <c r="E4">
-        <f>B2*LN(1/D4)*C4</f>
-        <v>11.832586786956096</v>
+        <f>B2*LN(1/D4)*C4*10000</f>
+        <v>27.378858794976423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <f>0.003139</f>
+        <v>3.1389999999999999E-3</v>
+      </c>
+      <c r="C6">
+        <f>-0.8291</f>
+        <v>-0.82909999999999995</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <f>-0.8291</f>
+        <v>-0.82909999999999995</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7">
+        <f>0.003139</f>
+        <v>3.1389999999999999E-3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <f>1/C6</f>
+        <v>-1.2061271257990593</v>
+      </c>
+      <c r="D8">
+        <v>0.32</v>
+      </c>
+      <c r="E8">
+        <f>B6*LN(1/D8)*C8*10000</f>
+        <v>-43.13935852042308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <f>0.0036454</f>
+        <v>3.6454E-3</v>
+      </c>
+      <c r="C10">
+        <f>-1.4118</f>
+        <v>-1.4117999999999999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <f>-1.4118</f>
+        <v>-1.4117999999999999</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11">
+        <f>0.0036454</f>
+        <v>3.6454E-3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C12">
+        <f>1/C10</f>
+        <v>-0.70831562544269733</v>
+      </c>
+      <c r="D12">
+        <v>0.32</v>
+      </c>
+      <c r="E12">
+        <f>B10*LN(1/D12)*C12*10000</f>
+        <v>-29.421261764661178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <f>0.0015123</f>
+        <v>1.5123000000000001E-3</v>
+      </c>
+      <c r="C14">
+        <f>0.65401</f>
+        <v>0.65400999999999998</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <f>0.65401</f>
+        <v>0.65400999999999998</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15">
+        <f>0.0015123</f>
+        <v>1.5123000000000001E-3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15">
+        <v>2.4899999999999998E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C16">
+        <f>1/C14</f>
+        <v>1.529028608125258</v>
+      </c>
+      <c r="D16">
+        <v>0.32</v>
+      </c>
+      <c r="E16">
+        <f>B14*LN(1/D16)*C16*10000</f>
+        <v>26.347708237882667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <f>0.001253</f>
+        <v>1.253E-3</v>
+      </c>
+      <c r="C18">
+        <f>0.87285</f>
+        <v>0.87285000000000001</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18">
+        <f>0.87285</f>
+        <v>0.87285000000000001</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19">
+        <f>0.001253</f>
+        <v>1.253E-3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19">
+        <v>1.9100000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C20">
+        <f>1/C18</f>
+        <v>1.1456722231769489</v>
+      </c>
+      <c r="D20">
+        <v>0.32</v>
+      </c>
+      <c r="E20">
+        <f>B18*LN(1/D20)*C20*10000</f>
+        <v>16.356890151057122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <f>0.0010779</f>
+        <v>1.0778999999999999E-3</v>
+      </c>
+      <c r="C22">
+        <f>1.0369</f>
+        <v>1.0368999999999999</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23">
+        <f>1.0369</f>
+        <v>1.0368999999999999</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23">
+        <v>0.223</v>
+      </c>
+      <c r="M23">
+        <f>I23+K23</f>
+        <v>1.2599</v>
+      </c>
+      <c r="N23">
+        <f>I23-K23</f>
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="P23">
+        <f>1/M23</f>
+        <v>0.79371378680847682</v>
+      </c>
+      <c r="Q23">
+        <f>1/N23</f>
+        <v>1.2286521685710776</v>
+      </c>
+      <c r="S23">
+        <f>C24-P23</f>
+        <v>0.17069936778695194</v>
+      </c>
+      <c r="T23">
+        <f>Q23-C24</f>
+        <v>0.26423901397564886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C24">
+        <f>1/C22</f>
+        <v>0.96441315459542876</v>
+      </c>
+      <c r="D24">
+        <v>0.32</v>
+      </c>
+      <c r="E24">
+        <f>B22*LN(1/D24)*C24*10000</f>
+        <v>11.844885850600237</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24">
+        <f>0.0010779</f>
+        <v>1.0778999999999999E-3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24">
+        <v>1.95E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <f>0.0011983</f>
+        <v>1.1983E-3</v>
+      </c>
+      <c r="C26">
+        <f>0.74188</f>
+        <v>0.74187999999999998</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <f>0.74188</f>
+        <v>0.74187999999999998</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C28">
+        <f>1/C26</f>
+        <v>1.3479268884455708</v>
+      </c>
+      <c r="D28">
+        <v>0.32</v>
+      </c>
+      <c r="E28">
+        <f>B26*LN(1/D28)*C28*10000</f>
+        <v>18.404379435280877</v>
+      </c>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28">
+        <f>0.0011983</f>
+        <v>1.1983E-3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28">
+        <v>2.3900000000000001E-4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/修論/本文0117/figure/fig_3_1_3QW_broadcontact_Jth.xlsx
+++ b/修論/本文0117/figure/fig_3_1_3QW_broadcontact_Jth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文0117\figure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/修論/本文0117/figure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AE74C0-1B1E-45D7-8195-04BAA8F4C0F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84DD372-8AE9-8A40-8219-3DEC613E215A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="0" windowWidth="18270" windowHeight="7980" activeTab="1" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
+    <workbookView xWindow="5520" yWindow="460" windowWidth="18280" windowHeight="15480" activeTab="1" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="39">
   <si>
     <t>L500_id</t>
     <phoneticPr fontId="1"/>
@@ -150,19 +149,35 @@
     <t>-1.#J</t>
   </si>
   <si>
-    <t>a+</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/a-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/a+</t>
+    <t>i_int+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i_int-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sigma_i_int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sigma_alpha</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -170,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,9 +548,9 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="B2">
         <v>0.58543299999999998</v>
       </c>
@@ -578,7 +593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="B3">
         <v>0.53004700000000005</v>
       </c>
@@ -586,7 +601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="B4">
         <v>0.80152299999999999</v>
       </c>
@@ -597,7 +612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>0.68346799999999996</v>
       </c>
@@ -611,7 +626,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>0.70464000000000004</v>
       </c>
@@ -622,7 +637,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>0.622865</v>
       </c>
@@ -636,7 +651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>0.68570399999999998</v>
       </c>
@@ -647,7 +662,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>0.66087300000000004</v>
       </c>
@@ -661,7 +676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>0.68468700000000005</v>
       </c>
@@ -675,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>0.72621800000000003</v>
       </c>
@@ -689,7 +704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>0.79095400000000005</v>
       </c>
@@ -703,7 +718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>0.77401600000000004</v>
       </c>
@@ -717,7 +732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>0.772119</v>
       </c>
@@ -731,7 +746,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>0.81717300000000004</v>
       </c>
@@ -742,7 +757,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>0.81879999999999997</v>
       </c>
@@ -750,7 +765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>1.5295000000000001</v>
       </c>
@@ -758,12 +773,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="D18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>1.7244900000000001</v>
       </c>
@@ -779,18 +794,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94E7890-6CD0-48BF-9442-0F734CED5114}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -803,8 +818,32 @@
       <c r="G1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="B2">
         <f>0.0013708</f>
         <v>1.3707999999999999E-3</v>
@@ -829,8 +868,40 @@
       <c r="K2">
         <v>0.20399999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M2">
+        <f>1/I2</f>
+        <v>1.7528791039282019</v>
+      </c>
+      <c r="N2">
+        <f>1/(I2-K2)</f>
+        <v>2.7285874102976884</v>
+      </c>
+      <c r="O2">
+        <f>1/(I2+K2)</f>
+        <v>1.2911722552905782</v>
+      </c>
+      <c r="P2">
+        <f>K2/I2/I2</f>
+        <v>0.62680737120957974</v>
+      </c>
+      <c r="R2">
+        <f>I3*LN(1/D4)*M2</f>
+        <v>27.378858794976423</v>
+      </c>
+      <c r="S2">
+        <f>(I3+K3)*LN(1/D4)*N2</f>
+        <v>48.183995527444878</v>
+      </c>
+      <c r="T2">
+        <f>(I3-K3)*LN(1/D4)*O2</f>
+        <v>17.533832311635955</v>
+      </c>
+      <c r="U2">
+        <f>LN(1/D4)*SQRT((M2*K3)^2+(I3*P2)^2)</f>
+        <v>10.422683074460396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="C3" t="s">
         <v>13</v>
       </c>
@@ -847,17 +918,18 @@
         <v>26</v>
       </c>
       <c r="I3">
-        <f>0.0013708</f>
-        <v>1.3707999999999999E-3</v>
+        <f>0.0013708*10000</f>
+        <v>13.707999999999998</v>
       </c>
       <c r="J3" t="s">
         <v>27</v>
       </c>
       <c r="K3">
-        <v>1.7899999999999999E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+        <f>0.000179*10000</f>
+        <v>1.7899999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="C4">
         <f>1/C2</f>
         <v>1.7528791039282019</v>
@@ -869,8 +941,11 @@
         <f>B2*LN(1/D4)*C4*10000</f>
         <v>27.378858794976423</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -886,8 +961,32 @@
       <c r="I5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="B6">
         <f>0.003139</f>
         <v>3.1389999999999999E-3</v>
@@ -909,8 +1008,40 @@
       <c r="K6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M6">
+        <f t="shared" ref="M6:M28" si="0">1/I6</f>
+        <v>-1.2061271257990593</v>
+      </c>
+      <c r="N6" t="e">
+        <f t="shared" ref="N6:N28" si="1">1/(I6-K6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O6" t="e">
+        <f t="shared" ref="O6:O28" si="2">1/(I6+K6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P6" t="e">
+        <f t="shared" ref="P6:P28" si="3">K6/I6/I6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R6">
+        <f>I7*LN(1/D8)*M6</f>
+        <v>-43.139358520423073</v>
+      </c>
+      <c r="S6" t="e">
+        <f>(I7+K7)*LN(1/D8)*N6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T6" t="e">
+        <f>(I7-K7)*LN(1/D8)*O6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U6" t="e">
+        <f>LN(1/D8)*SQRT((M6*K7)^2+(I7*P6)^2)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="C7" t="s">
         <v>13</v>
       </c>
@@ -924,8 +1055,8 @@
         <v>26</v>
       </c>
       <c r="I7">
-        <f>0.003139</f>
-        <v>3.1389999999999999E-3</v>
+        <f>0.003139*10000</f>
+        <v>31.389999999999997</v>
       </c>
       <c r="J7" t="s">
         <v>27</v>
@@ -934,7 +1065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21">
       <c r="C8">
         <f>1/C6</f>
         <v>-1.2061271257990593</v>
@@ -946,8 +1077,11 @@
         <f>B6*LN(1/D8)*C8*10000</f>
         <v>-43.13935852042308</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -963,8 +1097,32 @@
       <c r="I9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="B10">
         <f>0.0036454</f>
         <v>3.6454E-3</v>
@@ -986,8 +1144,40 @@
       <c r="K10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M10">
+        <f t="shared" ref="M10:M28" si="4">1/I10</f>
+        <v>-0.70831562544269733</v>
+      </c>
+      <c r="N10" t="e">
+        <f t="shared" ref="N10:N28" si="5">1/(I10-K10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O10" t="e">
+        <f t="shared" ref="O10:O28" si="6">1/(I10+K10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P10" t="e">
+        <f t="shared" ref="P10:P28" si="7">K10/I10/I10</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R10">
+        <f>I11*LN(1/D12)*M10</f>
+        <v>-29.421261764661178</v>
+      </c>
+      <c r="S10" t="e">
+        <f>(I11+K11)*LN(1/D12)*N10</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T10" t="e">
+        <f>(I11-K11)*LN(1/D12)*O10</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U10" t="e">
+        <f>LN(1/D12)*SQRT((M10*K11)^2+(I11*P10)^2)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="C11" t="s">
         <v>13</v>
       </c>
@@ -1001,8 +1191,8 @@
         <v>26</v>
       </c>
       <c r="I11">
-        <f>0.0036454</f>
-        <v>3.6454E-3</v>
+        <f>0.0036454*10000</f>
+        <v>36.454000000000001</v>
       </c>
       <c r="J11" t="s">
         <v>27</v>
@@ -1011,7 +1201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21">
       <c r="C12">
         <f>1/C10</f>
         <v>-0.70831562544269733</v>
@@ -1023,8 +1213,11 @@
         <f>B10*LN(1/D12)*C12*10000</f>
         <v>-29.421261764661178</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1040,8 +1233,32 @@
       <c r="I13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="B14">
         <f>0.0015123</f>
         <v>1.5123000000000001E-3</v>
@@ -1063,8 +1280,40 @@
       <c r="K14">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M14">
+        <f t="shared" ref="M14:M28" si="8">1/I14</f>
+        <v>1.529028608125258</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:N28" si="9">1/(I14-K14)</f>
+        <v>3.0863244961575265</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O28" si="10">1/(I14+K14)</f>
+        <v>1.0162498348594018</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P28" si="11">K14/I14/I14</f>
+        <v>0.77151639987360321</v>
+      </c>
+      <c r="R14">
+        <f>I15*LN(1/D16)*M14</f>
+        <v>26.347708237882667</v>
+      </c>
+      <c r="S14">
+        <f>(I15+K15)*LN(1/D16)*N14</f>
+        <v>61.939001974620147</v>
+      </c>
+      <c r="T14">
+        <f>(I15-K15)*LN(1/D16)*O14</f>
+        <v>14.62838111352386</v>
+      </c>
+      <c r="U14">
+        <f>LN(1/D16)*SQRT((M14*K15)^2+(I15*P14)^2)</f>
+        <v>13.98440430017309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -1078,17 +1327,18 @@
         <v>26</v>
       </c>
       <c r="I15">
-        <f>0.0015123</f>
-        <v>1.5123000000000001E-3</v>
+        <f>0.0015123*10000</f>
+        <v>15.123000000000001</v>
       </c>
       <c r="J15" t="s">
         <v>27</v>
       </c>
       <c r="K15">
-        <v>2.4899999999999998E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+        <f>10000*0.000249</f>
+        <v>2.4899999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="C16">
         <f>1/C14</f>
         <v>1.529028608125258</v>
@@ -1100,8 +1350,11 @@
         <f>B14*LN(1/D16)*C16*10000</f>
         <v>26.347708237882667</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="M16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1117,8 +1370,32 @@
       <c r="I17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="M17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="B18">
         <f>0.001253</f>
         <v>1.253E-3</v>
@@ -1140,8 +1417,40 @@
       <c r="K18">
         <v>0.218</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="M18">
+        <f t="shared" ref="M18:M28" si="12">1/I18</f>
+        <v>1.1456722231769489</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:N28" si="13">1/(I18-K18)</f>
+        <v>1.5270672673131251</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18:O28" si="14">1/(I18+K18)</f>
+        <v>0.91671632213411547</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:P28" si="15">K18/I18/I18</f>
+        <v>0.28613913576510841</v>
+      </c>
+      <c r="R18">
+        <f>I19*LN(1/D20)*M18</f>
+        <v>16.356890151057122</v>
+      </c>
+      <c r="S18">
+        <f>(I19+K19)*LN(1/D20)*N18</f>
+        <v>25.125495990287835</v>
+      </c>
+      <c r="T18">
+        <f>(I19-K19)*LN(1/D20)*O18</f>
+        <v>11.092993617326334</v>
+      </c>
+      <c r="U18">
+        <f>LN(1/D20)*SQRT((M18*K19)^2+(I19*P18)^2)</f>
+        <v>4.7860189063390921</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="C19" t="s">
         <v>13</v>
       </c>
@@ -1155,17 +1464,18 @@
         <v>26</v>
       </c>
       <c r="I19">
-        <f>0.001253</f>
-        <v>1.253E-3</v>
+        <f>0.001253*10000</f>
+        <v>12.53</v>
       </c>
       <c r="J19" t="s">
         <v>27</v>
       </c>
       <c r="K19">
-        <v>1.9100000000000001E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+        <f>10000*0.000191</f>
+        <v>1.9100000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="C20">
         <f>1/C18</f>
         <v>1.1456722231769489</v>
@@ -1177,8 +1487,11 @@
         <f>B18*LN(1/D20)*C20*10000</f>
         <v>16.356890151057122</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1188,8 +1501,38 @@
       <c r="C21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21" t="s">
+        <v>35</v>
+      </c>
+      <c r="U21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="B22">
         <f>0.0010779</f>
         <v>1.0778999999999999E-3</v>
@@ -1199,25 +1542,52 @@
         <v>1.0368999999999999</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" t="s">
-        <v>31</v>
-      </c>
-      <c r="N22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="I22">
+        <f>1.0369</f>
+        <v>1.0368999999999999</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22">
+        <v>0.223</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22:M28" si="16">1/I22</f>
+        <v>0.96441315459542876</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:N28" si="17">1/(I22-K22)</f>
+        <v>1.2286521685710776</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22:O28" si="18">1/(I22+K22)</f>
+        <v>0.79371378680847682</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22:P28" si="19">K22/I22/I22</f>
+        <v>0.20741067940474553</v>
+      </c>
+      <c r="R22">
+        <f>I23*LN(1/D24)*M22</f>
+        <v>11.844885850600235</v>
+      </c>
+      <c r="S22">
+        <f>(I23+K23)*LN(1/D24)*N22</f>
+        <v>17.820197801578445</v>
+      </c>
+      <c r="T22">
+        <f>(I23-K23)*LN(1/D24)*O22</f>
+        <v>7.9848125139059238</v>
+      </c>
+      <c r="U22">
+        <f>LN(1/D24)*SQRT((M22*K23)^2+(I23*P22)^2)</f>
+        <v>3.3288141898165353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="C23" t="s">
         <v>13</v>
       </c>
@@ -1228,44 +1598,25 @@
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I23">
-        <f>1.0369</f>
-        <v>1.0368999999999999</v>
+        <f>0.0010779*10000</f>
+        <v>10.779</v>
       </c>
       <c r="J23" t="s">
         <v>27</v>
       </c>
       <c r="K23">
-        <v>0.223</v>
-      </c>
-      <c r="M23">
-        <f>I23+K23</f>
-        <v>1.2599</v>
-      </c>
-      <c r="N23">
-        <f>I23-K23</f>
-        <v>0.81389999999999996</v>
-      </c>
-      <c r="P23">
-        <f>1/M23</f>
-        <v>0.79371378680847682</v>
-      </c>
-      <c r="Q23">
-        <f>1/N23</f>
-        <v>1.2286521685710776</v>
-      </c>
-      <c r="S23">
-        <f>C24-P23</f>
-        <v>0.17069936778695194</v>
-      </c>
-      <c r="T23">
-        <f>Q23-C24</f>
-        <v>0.26423901397564886</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+        <f>10000*0.000195</f>
+        <v>1.95</v>
+      </c>
+      <c r="W23">
+        <f>(26.3+16.4+11.8)/3</f>
+        <v>18.166666666666668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="C24">
         <f>1/C22</f>
         <v>0.96441315459542876</v>
@@ -1277,21 +1628,11 @@
         <f>B22*LN(1/D24)*C24*10000</f>
         <v>11.844885850600237</v>
       </c>
-      <c r="H24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24">
-        <f>0.0010779</f>
-        <v>1.0778999999999999E-3</v>
-      </c>
-      <c r="J24" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24">
-        <v>1.95E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="M24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1301,8 +1642,38 @@
       <c r="C25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" t="s">
+        <v>34</v>
+      </c>
+      <c r="T25" t="s">
+        <v>35</v>
+      </c>
+      <c r="U25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="B26">
         <f>0.0011983</f>
         <v>1.1983E-3</v>
@@ -1312,13 +1683,52 @@
         <v>0.74187999999999998</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="I26">
+        <f>0.74188</f>
+        <v>0.74187999999999998</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26">
+        <v>0.189</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="M26:M28" si="20">1/I26</f>
+        <v>1.3479268884455708</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26:N28" si="21">1/(I26-K26)</f>
+        <v>1.8087107509767038</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ref="O26:O28" si="22">1/(I26+K26)</f>
+        <v>1.0742523203850121</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ref="P26:P28" si="23">K26/I26/I26</f>
+        <v>0.34339540345637148</v>
+      </c>
+      <c r="R26">
+        <f>I27*LN(1/D28)*M26</f>
+        <v>18.404379435280877</v>
+      </c>
+      <c r="S26">
+        <f>(I27+K27)*LN(1/D28)*N26</f>
+        <v>29.621416857665984</v>
+      </c>
+      <c r="T26">
+        <f>(I27-K27)*LN(1/D28)*O26</f>
+        <v>11.742214977898316</v>
+      </c>
+      <c r="U26">
+        <f>LN(1/D28)*SQRT((M26*K27)^2+(I27*P26)^2)</f>
+        <v>5.9546550548095674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="C27" t="s">
         <v>13</v>
       </c>
@@ -1329,20 +1739,21 @@
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I27">
-        <f>0.74188</f>
-        <v>0.74187999999999998</v>
+        <f>0.0011983*10000</f>
+        <v>11.983000000000001</v>
       </c>
       <c r="J27" t="s">
         <v>27</v>
       </c>
       <c r="K27">
-        <v>0.189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+        <f>10000*0.000239</f>
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="C28">
         <f>1/C26</f>
         <v>1.3479268884455708</v>
@@ -1354,18 +1765,8 @@
         <f>B26*LN(1/D28)*C28*10000</f>
         <v>18.404379435280877</v>
       </c>
-      <c r="H28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28">
-        <f>0.0011983</f>
-        <v>1.1983E-3</v>
-      </c>
-      <c r="J28" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28">
-        <v>2.3900000000000001E-4</v>
+      <c r="M28" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/修論/本文0117/figure/fig_3_1_3QW_broadcontact_Jth.xlsx
+++ b/修論/本文0117/figure/fig_3_1_3QW_broadcontact_Jth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/修論/本文0117/figure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文0117\figure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84DD372-8AE9-8A40-8219-3DEC613E215A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0629C745-0C5E-4C13-A8C3-93C94F0DB662}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="460" windowWidth="18280" windowHeight="15480" activeTab="1" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
+    <workbookView xWindow="6555" yWindow="465" windowWidth="18285" windowHeight="15480" activeTab="1" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="40">
   <si>
     <t>L500_id</t>
     <phoneticPr fontId="1"/>
@@ -178,6 +179,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w=50~300</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -185,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,9 +553,9 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>0.58543299999999998</v>
       </c>
@@ -593,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>0.53004700000000005</v>
       </c>
@@ -601,7 +606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>0.80152299999999999</v>
       </c>
@@ -612,7 +617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0.68346799999999996</v>
       </c>
@@ -626,7 +631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0.70464000000000004</v>
       </c>
@@ -637,7 +642,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0.622865</v>
       </c>
@@ -651,7 +656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0.68570399999999998</v>
       </c>
@@ -662,7 +667,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0.66087300000000004</v>
       </c>
@@ -676,7 +681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.68468700000000005</v>
       </c>
@@ -690,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.72621800000000003</v>
       </c>
@@ -704,7 +709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0.79095400000000005</v>
       </c>
@@ -718,7 +723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0.77401600000000004</v>
       </c>
@@ -732,7 +737,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>0.772119</v>
       </c>
@@ -746,7 +751,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0.81717300000000004</v>
       </c>
@@ -757,7 +762,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>0.81879999999999997</v>
       </c>
@@ -765,7 +770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1.5295000000000001</v>
       </c>
@@ -773,12 +778,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1.7244900000000001</v>
       </c>
@@ -794,18 +799,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94E7890-6CD0-48BF-9442-0F734CED5114}">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -843,7 +848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B2">
         <f>0.0013708</f>
         <v>1.3707999999999999E-3</v>
@@ -901,7 +906,7 @@
         <v>10.422683074460396</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>13</v>
       </c>
@@ -929,7 +934,7 @@
         <v>1.7899999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="C4">
         <f>1/C2</f>
         <v>1.7528791039282019</v>
@@ -945,7 +950,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -986,7 +991,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B6">
         <f>0.003139</f>
         <v>3.1389999999999999E-3</v>
@@ -1009,19 +1014,19 @@
         <v>30</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M28" si="0">1/I6</f>
+        <f t="shared" ref="M6" si="0">1/I6</f>
         <v>-1.2061271257990593</v>
       </c>
       <c r="N6" t="e">
-        <f t="shared" ref="N6:N28" si="1">1/(I6-K6)</f>
+        <f t="shared" ref="N6" si="1">1/(I6-K6)</f>
         <v>#VALUE!</v>
       </c>
       <c r="O6" t="e">
-        <f t="shared" ref="O6:O28" si="2">1/(I6+K6)</f>
+        <f t="shared" ref="O6" si="2">1/(I6+K6)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P6" t="e">
-        <f t="shared" ref="P6:P28" si="3">K6/I6/I6</f>
+        <f t="shared" ref="P6" si="3">K6/I6/I6</f>
         <v>#VALUE!</v>
       </c>
       <c r="R6">
@@ -1041,7 +1046,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>13</v>
       </c>
@@ -1065,7 +1070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="C8">
         <f>1/C6</f>
         <v>-1.2061271257990593</v>
@@ -1081,7 +1086,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1122,7 +1127,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B10">
         <f>0.0036454</f>
         <v>3.6454E-3</v>
@@ -1145,19 +1150,19 @@
         <v>30</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:M28" si="4">1/I10</f>
+        <f t="shared" ref="M10" si="4">1/I10</f>
         <v>-0.70831562544269733</v>
       </c>
       <c r="N10" t="e">
-        <f t="shared" ref="N10:N28" si="5">1/(I10-K10)</f>
+        <f t="shared" ref="N10" si="5">1/(I10-K10)</f>
         <v>#VALUE!</v>
       </c>
       <c r="O10" t="e">
-        <f t="shared" ref="O10:O28" si="6">1/(I10+K10)</f>
+        <f t="shared" ref="O10" si="6">1/(I10+K10)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P10" t="e">
-        <f t="shared" ref="P10:P28" si="7">K10/I10/I10</f>
+        <f t="shared" ref="P10" si="7">K10/I10/I10</f>
         <v>#VALUE!</v>
       </c>
       <c r="R10">
@@ -1177,7 +1182,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>13</v>
       </c>
@@ -1201,7 +1206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="C12">
         <f>1/C10</f>
         <v>-0.70831562544269733</v>
@@ -1217,7 +1222,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1258,7 +1263,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B14">
         <f>0.0015123</f>
         <v>1.5123000000000001E-3</v>
@@ -1281,19 +1286,19 @@
         <v>0.33</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14:M28" si="8">1/I14</f>
+        <f t="shared" ref="M14" si="8">1/I14</f>
         <v>1.529028608125258</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="N14:N28" si="9">1/(I14-K14)</f>
+        <f t="shared" ref="N14" si="9">1/(I14-K14)</f>
         <v>3.0863244961575265</v>
       </c>
       <c r="O14">
-        <f t="shared" ref="O14:O28" si="10">1/(I14+K14)</f>
+        <f t="shared" ref="O14" si="10">1/(I14+K14)</f>
         <v>1.0162498348594018</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P14:P28" si="11">K14/I14/I14</f>
+        <f t="shared" ref="P14" si="11">K14/I14/I14</f>
         <v>0.77151639987360321</v>
       </c>
       <c r="R14">
@@ -1313,7 +1318,7 @@
         <v>13.98440430017309</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -1338,7 +1343,7 @@
         <v>2.4899999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="C16">
         <f>1/C14</f>
         <v>1.529028608125258</v>
@@ -1354,7 +1359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1395,7 +1400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B18">
         <f>0.001253</f>
         <v>1.253E-3</v>
@@ -1418,19 +1423,19 @@
         <v>0.218</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M28" si="12">1/I18</f>
+        <f t="shared" ref="M18" si="12">1/I18</f>
         <v>1.1456722231769489</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N28" si="13">1/(I18-K18)</f>
+        <f t="shared" ref="N18" si="13">1/(I18-K18)</f>
         <v>1.5270672673131251</v>
       </c>
       <c r="O18">
-        <f t="shared" ref="O18:O28" si="14">1/(I18+K18)</f>
+        <f t="shared" ref="O18" si="14">1/(I18+K18)</f>
         <v>0.91671632213411547</v>
       </c>
       <c r="P18">
-        <f t="shared" ref="P18:P28" si="15">K18/I18/I18</f>
+        <f t="shared" ref="P18" si="15">K18/I18/I18</f>
         <v>0.28613913576510841</v>
       </c>
       <c r="R18">
@@ -1450,7 +1455,7 @@
         <v>4.7860189063390921</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>13</v>
       </c>
@@ -1475,7 +1480,7 @@
         <v>1.9100000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C20">
         <f>1/C18</f>
         <v>1.1456722231769489</v>
@@ -1491,7 +1496,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1532,7 +1537,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B22">
         <f>0.0010779</f>
         <v>1.0778999999999999E-3</v>
@@ -1555,19 +1560,19 @@
         <v>0.223</v>
       </c>
       <c r="M22">
-        <f t="shared" ref="M22:M28" si="16">1/I22</f>
+        <f t="shared" ref="M22" si="16">1/I22</f>
         <v>0.96441315459542876</v>
       </c>
       <c r="N22">
-        <f t="shared" ref="N22:N28" si="17">1/(I22-K22)</f>
+        <f t="shared" ref="N22" si="17">1/(I22-K22)</f>
         <v>1.2286521685710776</v>
       </c>
       <c r="O22">
-        <f t="shared" ref="O22:O28" si="18">1/(I22+K22)</f>
+        <f t="shared" ref="O22" si="18">1/(I22+K22)</f>
         <v>0.79371378680847682</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P28" si="19">K22/I22/I22</f>
+        <f t="shared" ref="P22" si="19">K22/I22/I22</f>
         <v>0.20741067940474553</v>
       </c>
       <c r="R22">
@@ -1587,7 +1592,7 @@
         <v>3.3288141898165353</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>13</v>
       </c>
@@ -1616,7 +1621,7 @@
         <v>18.166666666666668</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C24">
         <f>1/C22</f>
         <v>0.96441315459542876</v>
@@ -1632,7 +1637,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1673,7 +1678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B26">
         <f>0.0011983</f>
         <v>1.1983E-3</v>
@@ -1696,19 +1701,19 @@
         <v>0.189</v>
       </c>
       <c r="M26">
-        <f t="shared" ref="M26:M28" si="20">1/I26</f>
+        <f t="shared" ref="M26" si="20">1/I26</f>
         <v>1.3479268884455708</v>
       </c>
       <c r="N26">
-        <f t="shared" ref="N26:N28" si="21">1/(I26-K26)</f>
+        <f t="shared" ref="N26" si="21">1/(I26-K26)</f>
         <v>1.8087107509767038</v>
       </c>
       <c r="O26">
-        <f t="shared" ref="O26:O28" si="22">1/(I26+K26)</f>
+        <f t="shared" ref="O26" si="22">1/(I26+K26)</f>
         <v>1.0742523203850121</v>
       </c>
       <c r="P26">
-        <f t="shared" ref="P26:P28" si="23">K26/I26/I26</f>
+        <f t="shared" ref="P26" si="23">K26/I26/I26</f>
         <v>0.34339540345637148</v>
       </c>
       <c r="R26">
@@ -1728,7 +1733,7 @@
         <v>5.9546550548095674</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>13</v>
       </c>
@@ -1753,7 +1758,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C28">
         <f>1/C26</f>
         <v>1.3479268884455708</v>
@@ -1767,6 +1772,112 @@
       </c>
       <c r="M28" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" t="s">
+        <v>33</v>
+      </c>
+      <c r="S29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T29" t="s">
+        <v>35</v>
+      </c>
+      <c r="U29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30">
+        <f>0.8624</f>
+        <v>0.86240000000000006</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30">
+        <v>0.114</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ref="M30" si="24">1/I30</f>
+        <v>1.1595547309833023</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30" si="25">1/(I30-K30)</f>
+        <v>1.3361838588989843</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30" si="26">1/(I30+K30)</f>
+        <v>1.0241704219582137</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ref="P30" si="27">K30/I30/I30</f>
+        <v>0.15328065785261649</v>
+      </c>
+      <c r="R30">
+        <f>I31*LN(1/D32)*M30</f>
+        <v>15.948644749961446</v>
+      </c>
+      <c r="S30">
+        <f>(I31+K31)*LN(1/D32)*N30</f>
+        <v>20.022314615459891</v>
+      </c>
+      <c r="T30">
+        <f>(I31-K31)*LN(1/D32)*O30</f>
+        <v>12.826221022658046</v>
+      </c>
+      <c r="U30">
+        <f>LN(1/D32)*SQRT((M30*K31)^2+(I31*P30)^2)</f>
+        <v>2.5457448864121859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31">
+        <f>0.0012071*10000</f>
+        <v>12.071</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31">
+        <f>10000*0.000108</f>
+        <v>1.0799999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="D32">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>

--- a/修論/本文0117/figure/fig_3_1_3QW_broadcontact_Jth.xlsx
+++ b/修論/本文0117/figure/fig_3_1_3QW_broadcontact_Jth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文0117\figure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0629C745-0C5E-4C13-A8C3-93C94F0DB662}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDC31C9-FA08-4795-9224-138A6F28936B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="465" windowWidth="18285" windowHeight="15480" activeTab="1" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
+    <workbookView xWindow="7590" yWindow="465" windowWidth="18285" windowHeight="15480" activeTab="1" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="41">
   <si>
     <t>L500_id</t>
     <phoneticPr fontId="1"/>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>w=50~300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w=30~300</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -799,10 +803,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94E7890-6CD0-48BF-9442-0F734CED5114}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1880,6 +1884,128 @@
         <v>0.32</v>
       </c>
     </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="I33">
+        <f>M26+M22+M18</f>
+        <v>3.4580122662179482</v>
+      </c>
+      <c r="J33">
+        <f>I33/3</f>
+        <v>1.1526707554059827</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R34" t="s">
+        <v>33</v>
+      </c>
+      <c r="S34" t="s">
+        <v>34</v>
+      </c>
+      <c r="T34" t="s">
+        <v>35</v>
+      </c>
+      <c r="U34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35">
+        <f>0.76624</f>
+        <v>0.76624000000000003</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="M35">
+        <f>1/I35</f>
+        <v>1.3050741282104823</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35" si="28">1/(I35-K35)</f>
+        <v>1.5766902119071644</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ref="O35" si="29">1/(I35+K35)</f>
+        <v>1.1132882080513002</v>
+      </c>
+      <c r="P35">
+        <f t="shared" ref="P35" si="30">K35/I35/I35</f>
+        <v>0.22482483937641426</v>
+      </c>
+      <c r="R35">
+        <f>I36*LN(1/D37)*M35</f>
+        <v>20.054305104247085</v>
+      </c>
+      <c r="S35">
+        <f>(I36+K36)*LN(1/D37)*N35</f>
+        <v>26.258153826755077</v>
+      </c>
+      <c r="T35">
+        <f>(I36-K36)*LN(1/D37)*O35</f>
+        <v>15.673817691346892</v>
+      </c>
+      <c r="U35">
+        <f>LN(1/D37)*SQRT((M35*K36)^2+(I36*P35)^2)</f>
+        <v>3.8417340401318376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="D36">
+        <v>0.32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36">
+        <f>0.0013486*10000</f>
+        <v>13.485999999999999</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36">
+        <f>0.000113*10000</f>
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="D37">
+        <v>0.32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
